--- a/ValueSet-pco-category-vs.xlsx
+++ b/ValueSet-pco-category-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Person-Centered Category Value Set</t>
+    <t>Person-Centered Goal Category Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Used to categorize resources as being Person-Centered</t>
+    <t>Used to categorize resources as being a Person-Centered Goal</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -102,10 +102,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>person-centered</t>
-  </si>
-  <si>
-    <t>Person-Centered</t>
+    <t>person-centered-goal</t>
+  </si>
+  <si>
+    <t>Person-Centered Goal</t>
   </si>
   <si>
     <t/>

--- a/ValueSet-pco-category-vs.xlsx
+++ b/ValueSet-pco-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-vs.xlsx
+++ b/ValueSet-pco-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-category-vs.xlsx
+++ b/ValueSet-pco-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
